--- a/resources/excelfiles/AppilloTestMethodInterceptor.xlsx
+++ b/resources/excelfiles/AppilloTestMethodInterceptor.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>TestName</t>
   </si>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">to login chrome </t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>yes</t>
   </si>
   <si>
     <t>0</t>
@@ -50,6 +50,36 @@
     <t>to calculate money chrome</t>
   </si>
   <si>
+    <t>justToTestListenerMethod1Chrome</t>
+  </si>
+  <si>
+    <t>to test listener 1 count control on method chrome</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>justToTestListenerMethod2Chrome</t>
+  </si>
+  <si>
+    <t>to test listener 2 count control on method chrome</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>justToTestRetryListenerOnFailMethod3Chrome</t>
+  </si>
+  <si>
+    <t>to test retry listener  control on method chrome</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>loginWithCredentialsEdge</t>
   </si>
   <si>
@@ -60,6 +90,24 @@
   </si>
   <si>
     <t>to calculate money edge</t>
+  </si>
+  <si>
+    <t>justToTestListenerMethod1Edge</t>
+  </si>
+  <si>
+    <t>to test listener 1 control on method edge</t>
+  </si>
+  <si>
+    <t>justToTestListenerMethod2Edge</t>
+  </si>
+  <si>
+    <t>to test listener 2 control on method edge</t>
+  </si>
+  <si>
+    <t>justToTestRetryListenerOnFailMethod3Edge</t>
+  </si>
+  <si>
+    <t>to test retry listener  control on method edge</t>
   </si>
 </sst>
 </file>
@@ -211,7 +259,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -285,7 +333,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>9</v>
@@ -293,18 +341,120 @@
     </row>
     <row r="5" ht="50.0" customHeight="true">
       <c r="A5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="50.0" customHeight="true">
+      <c r="A6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="50.0" customHeight="true">
+      <c r="A7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="50.0" customHeight="true">
+      <c r="A8" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" ht="50.0" customHeight="true">
+      <c r="A9" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s" s="0">
+      <c r="E9" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="50.0" customHeight="true">
+      <c r="A10" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="50.0" customHeight="true">
+      <c r="A11" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s" s="0">
         <v>9</v>
       </c>
     </row>
